--- a/output/semivariogram-models-xco2.xlsx
+++ b/output/semivariogram-models-xco2.xlsx
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B2">
@@ -415,26 +415,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.1198</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.0045</v>
+        <v>0.9922</v>
       </c>
       <c r="F2">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="G2">
-        <v>0.1192633150821304</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>420.9166</v>
+        <v>2637.9293</v>
       </c>
       <c r="I2">
-        <v>0.3708</v>
+        <v>0.2217</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xco2.xlsx
+++ b/output/semivariogram-models-xco2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,26 +415,92 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.111</v>
+      </c>
+      <c r="E2">
+        <v>1.564</v>
+      </c>
+      <c r="F2">
+        <v>4.47</v>
+      </c>
+      <c r="G2">
+        <v>0.07097186700767263</v>
+      </c>
+      <c r="H2">
+        <v>2.7726</v>
+      </c>
+      <c r="I2">
+        <v>0.7851</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.9922</v>
-      </c>
-      <c r="F2">
-        <v>0.74</v>
-      </c>
-      <c r="G2">
+      <c r="E3">
+        <v>2.0182</v>
+      </c>
+      <c r="F3">
+        <v>2.17</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>2637.9293</v>
-      </c>
-      <c r="I2">
-        <v>0.2217</v>
+      <c r="H3">
+        <v>4.9353</v>
+      </c>
+      <c r="I3">
+        <v>0.0134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.1195</v>
+      </c>
+      <c r="F4">
+        <v>4.2</v>
+      </c>
+      <c r="G4">
+        <v>0.7198749441715051</v>
+      </c>
+      <c r="H4">
+        <v>147.892</v>
+      </c>
+      <c r="I4">
+        <v>0.1663</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xco2.xlsx
+++ b/output/semivariogram-models-xco2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B2">
@@ -415,92 +415,983 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.564</v>
+        <v>1.9732</v>
       </c>
       <c r="F2">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="G2">
-        <v>0.07097186700767263</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.7726</v>
+        <v>2121.7821</v>
       </c>
       <c r="I2">
-        <v>0.7851</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.0182</v>
+        <v>1.7569</v>
       </c>
       <c r="F3">
-        <v>2.17</v>
+        <v>0.57</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.9353</v>
+        <v>1646.1639</v>
       </c>
       <c r="I3">
-        <v>0.0134</v>
+        <v>0.5163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.6583</v>
+      </c>
+      <c r="F4">
+        <v>0.66</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>755.9422</v>
+      </c>
+      <c r="I4">
+        <v>0.6969</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.617</v>
+      </c>
+      <c r="F5">
+        <v>1.21</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4375.7071</v>
+      </c>
+      <c r="I5">
+        <v>0.4068</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1.7444</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4634.6276</v>
+      </c>
+      <c r="I6">
+        <v>0.4643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.3488</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1502.3498</v>
+      </c>
+      <c r="I7">
+        <v>0.5874</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1.1673</v>
+      </c>
+      <c r="E8">
+        <v>1.5932</v>
+      </c>
+      <c r="F8">
+        <v>4.07</v>
+      </c>
+      <c r="G8">
+        <v>0.7326763745920161</v>
+      </c>
+      <c r="H8">
+        <v>40.9205</v>
+      </c>
+      <c r="I8">
+        <v>0.8332000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.5661</v>
+      </c>
+      <c r="E9">
+        <v>0.8784</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>0.6444672131147542</v>
+      </c>
+      <c r="H9">
+        <v>162.2226</v>
+      </c>
+      <c r="I9">
+        <v>-0.1448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.8509</v>
+      </c>
+      <c r="F10">
+        <v>0.93</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>820.6929</v>
+      </c>
+      <c r="I10">
+        <v>0.4547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.1976</v>
+      </c>
+      <c r="E11">
+        <v>1.5414</v>
+      </c>
+      <c r="F11">
+        <v>0.55</v>
+      </c>
+      <c r="G11">
+        <v>0.1281951472687168</v>
+      </c>
+      <c r="H11">
+        <v>2399.7494</v>
+      </c>
+      <c r="I11">
+        <v>-0.993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.6363</v>
+      </c>
+      <c r="E12">
+        <v>2.2335</v>
+      </c>
+      <c r="F12">
+        <v>0.83</v>
+      </c>
+      <c r="G12">
+        <v>0.2848891873740766</v>
+      </c>
+      <c r="H12">
+        <v>3047.8372</v>
+      </c>
+      <c r="I12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1.4721</v>
+      </c>
+      <c r="F13">
+        <v>0.82</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>389.8391</v>
+      </c>
+      <c r="I13">
+        <v>0.2713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1.1976</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>329.6518</v>
+      </c>
+      <c r="I14">
+        <v>0.0883</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.7573</v>
+      </c>
+      <c r="E15">
+        <v>1.0847</v>
+      </c>
+      <c r="F15">
+        <v>1.75</v>
+      </c>
+      <c r="G15">
+        <v>0.6981653913524477</v>
+      </c>
+      <c r="H15">
+        <v>478.5585</v>
+      </c>
+      <c r="I15">
+        <v>0.1322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.7469</v>
+      </c>
+      <c r="E16">
+        <v>1.0271</v>
+      </c>
+      <c r="F16">
+        <v>0.88</v>
+      </c>
+      <c r="G16">
+        <v>0.7271930678609678</v>
+      </c>
+      <c r="H16">
+        <v>114.8075</v>
+      </c>
+      <c r="I16">
+        <v>-0.1706</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1.0482</v>
+      </c>
+      <c r="E17">
+        <v>1.5035</v>
+      </c>
+      <c r="F17">
+        <v>0.88</v>
+      </c>
+      <c r="G17">
+        <v>0.6971732623877619</v>
+      </c>
+      <c r="H17">
+        <v>286.0988</v>
+      </c>
+      <c r="I17">
+        <v>-0.1456</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1.2908</v>
+      </c>
+      <c r="E18">
+        <v>2.2458</v>
+      </c>
+      <c r="F18">
+        <v>1.38</v>
+      </c>
+      <c r="G18">
+        <v>0.5747617775402974</v>
+      </c>
+      <c r="H18">
+        <v>535.2027</v>
+      </c>
+      <c r="I18">
+        <v>-0.1154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.6566</v>
+      </c>
+      <c r="E19">
+        <v>1.5229</v>
+      </c>
+      <c r="F19">
+        <v>0.67</v>
+      </c>
+      <c r="G19">
+        <v>0.4311510933088187</v>
+      </c>
+      <c r="H19">
+        <v>4604.2652</v>
+      </c>
+      <c r="I19">
+        <v>0.1723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.3706</v>
+      </c>
+      <c r="E20">
+        <v>0.9831</v>
+      </c>
+      <c r="F20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.3769708066320822</v>
+      </c>
+      <c r="H20">
+        <v>2666.6811</v>
+      </c>
+      <c r="I20">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>2016</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1.6896</v>
+      </c>
+      <c r="F21">
+        <v>0.89</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2692.4836</v>
+      </c>
+      <c r="I21">
+        <v>0.5825</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.2708</v>
+      </c>
+      <c r="E22">
+        <v>1.0617</v>
+      </c>
+      <c r="F22">
+        <v>0.39</v>
+      </c>
+      <c r="G22">
+        <v>0.2550626353960629</v>
+      </c>
+      <c r="H22">
+        <v>2269.3195</v>
+      </c>
+      <c r="I22">
+        <v>0.1949</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>2018</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Gau</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.8058999999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.1195</v>
-      </c>
-      <c r="F4">
-        <v>4.2</v>
-      </c>
-      <c r="G4">
-        <v>0.7198749441715051</v>
-      </c>
-      <c r="H4">
-        <v>147.892</v>
-      </c>
-      <c r="I4">
-        <v>0.1663</v>
+      <c r="D23">
+        <v>0.2225</v>
+      </c>
+      <c r="E23">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.19</v>
+      </c>
+      <c r="G23">
+        <v>0.2283690854972801</v>
+      </c>
+      <c r="H23">
+        <v>14363.9065</v>
+      </c>
+      <c r="I23">
+        <v>-0.0746</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.4004</v>
+      </c>
+      <c r="E24">
+        <v>2.0741</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>0.1930475869051637</v>
+      </c>
+      <c r="H24">
+        <v>9466.122600000001</v>
+      </c>
+      <c r="I24">
+        <v>0.4113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.6696</v>
+      </c>
+      <c r="F25">
+        <v>1.14</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>11097.2817</v>
+      </c>
+      <c r="I25">
+        <v>0.3168</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.3049</v>
+      </c>
+      <c r="E26">
+        <v>1.0856</v>
+      </c>
+      <c r="F26">
+        <v>0.39</v>
+      </c>
+      <c r="G26">
+        <v>0.280858511422255</v>
+      </c>
+      <c r="H26">
+        <v>1138.1503</v>
+      </c>
+      <c r="I26">
+        <v>-0.2073</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.141</v>
+      </c>
+      <c r="E27">
+        <v>1.3739</v>
+      </c>
+      <c r="F27">
+        <v>0.86</v>
+      </c>
+      <c r="G27">
+        <v>0.1026275565907271</v>
+      </c>
+      <c r="H27">
+        <v>132.8569</v>
+      </c>
+      <c r="I27">
+        <v>0.9305</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>2017</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.1758</v>
+      </c>
+      <c r="E28">
+        <v>1.0175</v>
+      </c>
+      <c r="F28">
+        <v>0.6</v>
+      </c>
+      <c r="G28">
+        <v>0.1727764127764128</v>
+      </c>
+      <c r="H28">
+        <v>1029.0436</v>
+      </c>
+      <c r="I28">
+        <v>0.3147</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.3006</v>
+      </c>
+      <c r="E29">
+        <v>1.1765</v>
+      </c>
+      <c r="F29">
+        <v>0.58</v>
+      </c>
+      <c r="G29">
+        <v>0.2555036124096897</v>
+      </c>
+      <c r="H29">
+        <v>360.8514</v>
+      </c>
+      <c r="I29">
+        <v>0.6313</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.4441</v>
+      </c>
+      <c r="E30">
+        <v>1.3943</v>
+      </c>
+      <c r="F30">
+        <v>0.99</v>
+      </c>
+      <c r="G30">
+        <v>0.3185110808290899</v>
+      </c>
+      <c r="H30">
+        <v>365.8354</v>
+      </c>
+      <c r="I30">
+        <v>0.8715000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1.2763</v>
+      </c>
+      <c r="F31">
+        <v>0.66</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>372.4931</v>
+      </c>
+      <c r="I31">
+        <v>0.714</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xco2.xlsx
+++ b/output/semivariogram-models-xco2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,26 +415,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.9732</v>
+        <v>2.0849</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2121.7821</v>
+        <v>3973.2333</v>
       </c>
       <c r="I2">
-        <v>0.695</v>
+        <v>0.1324</v>
       </c>
     </row>
     <row r="3">
@@ -444,73 +444,73 @@
         </is>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.7569</v>
+        <v>1.3488</v>
       </c>
       <c r="F3">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1646.1639</v>
+        <v>1502.3498</v>
       </c>
       <c r="I3">
-        <v>0.5163</v>
+        <v>0.5874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="E4">
-        <v>1.6583</v>
+        <v>1.5463</v>
       </c>
       <c r="F4">
-        <v>0.66</v>
+        <v>1.14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.4190648645152946</v>
       </c>
       <c r="H4">
-        <v>755.9422</v>
+        <v>373.0349</v>
       </c>
       <c r="I4">
-        <v>0.6969</v>
+        <v>0.7488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -521,29 +521,29 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.617</v>
+        <v>0.8633</v>
       </c>
       <c r="F5">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4375.7071</v>
+        <v>205.2036</v>
       </c>
       <c r="I5">
-        <v>0.4068</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -554,29 +554,29 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.7444</v>
+        <v>1.9893</v>
       </c>
       <c r="F6">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4634.6276</v>
+        <v>1029.6699</v>
       </c>
       <c r="I6">
-        <v>0.4643</v>
+        <v>0.6132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B7">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.3488</v>
+        <v>1.3393</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1502.3498</v>
+        <v>1015.1866</v>
       </c>
       <c r="I7">
-        <v>0.5874</v>
+        <v>0.5461</v>
       </c>
     </row>
     <row r="8">
@@ -609,30 +609,30 @@
         </is>
       </c>
       <c r="B8">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D8">
-        <v>1.1673</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.5932</v>
+        <v>2.3012</v>
       </c>
       <c r="F8">
-        <v>4.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G8">
-        <v>0.7326763745920161</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>40.9205</v>
+        <v>5967.7918</v>
       </c>
       <c r="I8">
-        <v>0.8332000000000001</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="9">
@@ -642,30 +642,30 @@
         </is>
       </c>
       <c r="B9">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.5661</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8784</v>
+        <v>1.3901</v>
       </c>
       <c r="F9">
-        <v>1.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G9">
-        <v>0.6444672131147542</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>162.2226</v>
+        <v>432.9953</v>
       </c>
       <c r="I9">
-        <v>-0.1448</v>
+        <v>0.4235</v>
       </c>
     </row>
     <row r="10">
@@ -675,73 +675,73 @@
         </is>
       </c>
       <c r="B10">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2715</v>
       </c>
       <c r="E10">
-        <v>1.8509</v>
+        <v>1.3523</v>
       </c>
       <c r="F10">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H10">
-        <v>820.6929</v>
+        <v>5456.4839</v>
       </c>
       <c r="I10">
-        <v>0.4547</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.1976</v>
+        <v>0.2715</v>
       </c>
       <c r="E11">
-        <v>1.5414</v>
+        <v>1.3523</v>
       </c>
       <c r="F11">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="G11">
-        <v>0.1281951472687168</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H11">
-        <v>2399.7494</v>
+        <v>5456.4839</v>
       </c>
       <c r="I11">
-        <v>-0.993</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -749,61 +749,61 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.6363</v>
+        <v>0.2715</v>
       </c>
       <c r="E12">
-        <v>2.2335</v>
+        <v>1.3523</v>
       </c>
       <c r="F12">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="G12">
-        <v>0.2848891873740766</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H12">
-        <v>3047.8372</v>
+        <v>5456.4839</v>
       </c>
       <c r="I12">
-        <v>0.46</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B13">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.2715</v>
       </c>
       <c r="E13">
-        <v>1.4721</v>
+        <v>1.3523</v>
       </c>
       <c r="F13">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H13">
-        <v>389.8391</v>
+        <v>5456.4839</v>
       </c>
       <c r="I13">
-        <v>0.2713</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B14">
@@ -811,125 +811,125 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.2715</v>
       </c>
       <c r="E14">
-        <v>1.1976</v>
+        <v>1.3523</v>
       </c>
       <c r="F14">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H14">
-        <v>329.6518</v>
+        <v>5456.4839</v>
       </c>
       <c r="I14">
-        <v>0.0883</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B15">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.7573</v>
+        <v>0.2715</v>
       </c>
       <c r="E15">
-        <v>1.0847</v>
+        <v>1.3523</v>
       </c>
       <c r="F15">
-        <v>1.75</v>
+        <v>0.73</v>
       </c>
       <c r="G15">
-        <v>0.6981653913524477</v>
+        <v>0.2007690601197959</v>
       </c>
       <c r="H15">
-        <v>478.5585</v>
+        <v>5456.4839</v>
       </c>
       <c r="I15">
-        <v>0.1322</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B16">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.7469</v>
+        <v>0.5558</v>
       </c>
       <c r="E16">
-        <v>1.0271</v>
+        <v>1.4265</v>
       </c>
       <c r="F16">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="G16">
-        <v>0.7271930678609678</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H16">
-        <v>114.8075</v>
+        <v>13007.4903</v>
       </c>
       <c r="I16">
-        <v>-0.1706</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B17">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D17">
-        <v>1.0482</v>
+        <v>0.5558</v>
       </c>
       <c r="E17">
-        <v>1.5035</v>
+        <v>1.4265</v>
       </c>
       <c r="F17">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="G17">
-        <v>0.6971732623877619</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H17">
-        <v>286.0988</v>
+        <v>13007.4903</v>
       </c>
       <c r="I17">
-        <v>-0.1456</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="18">
@@ -939,40 +939,40 @@
         </is>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D18">
-        <v>1.2908</v>
+        <v>0.5558</v>
       </c>
       <c r="E18">
-        <v>2.2458</v>
+        <v>1.4265</v>
       </c>
       <c r="F18">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="G18">
-        <v>0.5747617775402974</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H18">
-        <v>535.2027</v>
+        <v>13007.4903</v>
       </c>
       <c r="I18">
-        <v>-0.1154</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B19">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -980,32 +980,32 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.6566</v>
+        <v>0.5558</v>
       </c>
       <c r="E19">
-        <v>1.5229</v>
+        <v>1.4265</v>
       </c>
       <c r="F19">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="G19">
-        <v>0.4311510933088187</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H19">
-        <v>4604.2652</v>
+        <v>13007.4903</v>
       </c>
       <c r="I19">
-        <v>0.1723</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1013,28 +1013,28 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.3706</v>
+        <v>0.5558</v>
       </c>
       <c r="E20">
-        <v>0.9831</v>
+        <v>1.4265</v>
       </c>
       <c r="F20">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G20">
-        <v>0.3769708066320822</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H20">
-        <v>2666.6811</v>
+        <v>13007.4903</v>
       </c>
       <c r="I20">
-        <v>0.344</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B21">
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.5558</v>
       </c>
       <c r="E21">
-        <v>1.6896</v>
+        <v>1.4265</v>
       </c>
       <c r="F21">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.3896249561864703</v>
       </c>
       <c r="H21">
-        <v>2692.4836</v>
+        <v>13007.4903</v>
       </c>
       <c r="I21">
-        <v>0.5825</v>
+        <v>-0.2238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B22">
@@ -1075,26 +1075,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.2708</v>
+        <v>0.0531</v>
       </c>
       <c r="E22">
-        <v>1.0617</v>
+        <v>1.3943</v>
       </c>
       <c r="F22">
-        <v>0.39</v>
+        <v>0.91</v>
       </c>
       <c r="G22">
-        <v>0.2550626353960629</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H22">
-        <v>2269.3195</v>
+        <v>7285.1067</v>
       </c>
       <c r="I22">
-        <v>0.1949</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="23">
@@ -1104,73 +1104,73 @@
         </is>
       </c>
       <c r="B23">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.2225</v>
+        <v>0.0531</v>
       </c>
       <c r="E23">
-        <v>0.9743000000000001</v>
+        <v>1.3943</v>
       </c>
       <c r="F23">
-        <v>0.19</v>
+        <v>0.91</v>
       </c>
       <c r="G23">
-        <v>0.2283690854972801</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H23">
-        <v>14363.9065</v>
+        <v>7285.1067</v>
       </c>
       <c r="I23">
-        <v>-0.0746</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.4004</v>
+        <v>0.0531</v>
       </c>
       <c r="E24">
-        <v>2.0741</v>
+        <v>1.3943</v>
       </c>
       <c r="F24">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="G24">
-        <v>0.1930475869051637</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H24">
-        <v>9466.122600000001</v>
+        <v>7285.1067</v>
       </c>
       <c r="I24">
-        <v>0.4113</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B25">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0531</v>
       </c>
       <c r="E25">
-        <v>1.6696</v>
+        <v>1.3943</v>
       </c>
       <c r="F25">
-        <v>1.14</v>
+        <v>0.91</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H25">
-        <v>11097.2817</v>
+        <v>7285.1067</v>
       </c>
       <c r="I25">
-        <v>0.3168</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="26">
@@ -1203,40 +1203,40 @@
         </is>
       </c>
       <c r="B26">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D26">
-        <v>0.3049</v>
+        <v>0.0531</v>
       </c>
       <c r="E26">
-        <v>1.0856</v>
+        <v>1.3943</v>
       </c>
       <c r="F26">
-        <v>0.39</v>
+        <v>0.91</v>
       </c>
       <c r="G26">
-        <v>0.280858511422255</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H26">
-        <v>1138.1503</v>
+        <v>7285.1067</v>
       </c>
       <c r="I26">
-        <v>-0.2073</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.141</v>
+        <v>0.0531</v>
       </c>
       <c r="E27">
-        <v>1.3739</v>
+        <v>1.3943</v>
       </c>
       <c r="F27">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G27">
-        <v>0.1026275565907271</v>
+        <v>0.03808362619235458</v>
       </c>
       <c r="H27">
-        <v>132.8569</v>
+        <v>7285.1067</v>
       </c>
       <c r="I27">
-        <v>0.9305</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B28">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1277,28 +1277,28 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.1758</v>
+        <v>0.3643</v>
       </c>
       <c r="E28">
-        <v>1.0175</v>
+        <v>1.361</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="G28">
-        <v>0.1727764127764128</v>
+        <v>0.267670830271859</v>
       </c>
       <c r="H28">
-        <v>1029.0436</v>
+        <v>8722.5887</v>
       </c>
       <c r="I28">
-        <v>0.3147</v>
+        <v>-0.1334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B29">
@@ -1310,32 +1310,32 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.3006</v>
+        <v>0.3643</v>
       </c>
       <c r="E29">
-        <v>1.1765</v>
+        <v>1.361</v>
       </c>
       <c r="F29">
-        <v>0.58</v>
+        <v>0.84</v>
       </c>
       <c r="G29">
-        <v>0.2555036124096897</v>
+        <v>0.267670830271859</v>
       </c>
       <c r="H29">
-        <v>360.8514</v>
+        <v>8722.5887</v>
       </c>
       <c r="I29">
-        <v>0.6313</v>
+        <v>-0.1334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1343,55 +1343,649 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.4441</v>
+        <v>0.3643</v>
       </c>
       <c r="E30">
-        <v>1.3943</v>
+        <v>1.361</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="G30">
-        <v>0.3185110808290899</v>
+        <v>0.267670830271859</v>
       </c>
       <c r="H30">
-        <v>365.8354</v>
+        <v>8722.5887</v>
       </c>
       <c r="I30">
-        <v>0.8715000000000001</v>
+        <v>-0.1334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.3643</v>
+      </c>
+      <c r="E31">
+        <v>1.361</v>
+      </c>
+      <c r="F31">
+        <v>0.84</v>
+      </c>
+      <c r="G31">
+        <v>0.267670830271859</v>
+      </c>
+      <c r="H31">
+        <v>8722.5887</v>
+      </c>
+      <c r="I31">
+        <v>-0.1334</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.3643</v>
+      </c>
+      <c r="E32">
+        <v>1.361</v>
+      </c>
+      <c r="F32">
+        <v>0.84</v>
+      </c>
+      <c r="G32">
+        <v>0.267670830271859</v>
+      </c>
+      <c r="H32">
+        <v>8722.5887</v>
+      </c>
+      <c r="I32">
+        <v>-0.1334</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.3643</v>
+      </c>
+      <c r="E33">
+        <v>1.361</v>
+      </c>
+      <c r="F33">
+        <v>0.84</v>
+      </c>
+      <c r="G33">
+        <v>0.267670830271859</v>
+      </c>
+      <c r="H33">
+        <v>8722.5887</v>
+      </c>
+      <c r="I33">
+        <v>-0.1334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2.0976</v>
+      </c>
+      <c r="F34">
+        <v>0.93</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>21270.5264</v>
+      </c>
+      <c r="I34">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>2019</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2.0976</v>
+      </c>
+      <c r="F35">
+        <v>0.93</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>21270.5264</v>
+      </c>
+      <c r="I35">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2.0976</v>
+      </c>
+      <c r="F36">
+        <v>0.93</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>21270.5264</v>
+      </c>
+      <c r="I36">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2.0976</v>
+      </c>
+      <c r="F37">
+        <v>0.93</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>21270.5264</v>
+      </c>
+      <c r="I37">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>2019</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2.0976</v>
+      </c>
+      <c r="F38">
+        <v>0.93</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>21270.5264</v>
+      </c>
+      <c r="I38">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>2019</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2.0976</v>
+      </c>
+      <c r="F39">
+        <v>0.93</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>21270.5264</v>
+      </c>
+      <c r="I39">
+        <v>0.4848</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>2020</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1.2763</v>
-      </c>
-      <c r="F31">
-        <v>0.66</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>372.4931</v>
-      </c>
-      <c r="I31">
-        <v>0.714</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>0.2299</v>
+      </c>
+      <c r="E40">
+        <v>1.5009</v>
+      </c>
+      <c r="F40">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H40">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I40">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.2299</v>
+      </c>
+      <c r="E41">
+        <v>1.5009</v>
+      </c>
+      <c r="F41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H41">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I41">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>0.2299</v>
+      </c>
+      <c r="E42">
+        <v>1.5009</v>
+      </c>
+      <c r="F42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H42">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I42">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0.2299</v>
+      </c>
+      <c r="E43">
+        <v>1.5009</v>
+      </c>
+      <c r="F43">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H43">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I43">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>0.2299</v>
+      </c>
+      <c r="E44">
+        <v>1.5009</v>
+      </c>
+      <c r="F44">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H44">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I44">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>0.2299</v>
+      </c>
+      <c r="E45">
+        <v>1.5009</v>
+      </c>
+      <c r="F45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G45">
+        <v>0.1531747618095809</v>
+      </c>
+      <c r="H45">
+        <v>9098.009899999999</v>
+      </c>
+      <c r="I45">
+        <v>0.2734</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>2015</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.8502999999999999</v>
+      </c>
+      <c r="F46">
+        <v>2.01</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.4947</v>
+      </c>
+      <c r="I46">
+        <v>0.1315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1.6015</v>
+      </c>
+      <c r="F47">
+        <v>0.84</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1338.2211</v>
+      </c>
+      <c r="I47">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>2015</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.9922</v>
+      </c>
+      <c r="F48">
+        <v>0.74</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2637.9293</v>
+      </c>
+      <c r="I48">
+        <v>0.2217</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>2018</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="E49">
+        <v>1.1195</v>
+      </c>
+      <c r="F49">
+        <v>4.2</v>
+      </c>
+      <c r="G49">
+        <v>0.7198749441715051</v>
+      </c>
+      <c r="H49">
+        <v>147.892</v>
+      </c>
+      <c r="I49">
+        <v>0.1663</v>
       </c>
     </row>
   </sheetData>
